--- a/processed_data/Bridgeport_3/Train_Y.xlsx
+++ b/processed_data/Bridgeport_3/Train_Y.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE76BC94-8F4A-624A-93A8-5E2D562348CF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A6D4834-C50D-C447-891B-FC36A7E1DCD9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-32380" yWindow="-2300" windowWidth="29420" windowHeight="18840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,9 +40,6 @@
     <t xml:space="preserve"> RMS Velocity</t>
   </si>
   <si>
-    <t xml:space="preserve"> Avg(ChrW(186)F)</t>
-  </si>
-  <si>
     <t>Temperature</t>
   </si>
   <si>
@@ -59,6 +56,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Peak Velocity</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Avg(¬∞F)</t>
   </si>
 </sst>
 </file>
@@ -94,7 +94,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -104,6 +104,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,7 +391,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A1995" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2002" sqref="D2002"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -406,19 +409,19 @@
         <v>4</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -437,14 +440,14 @@
       <c r="E2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>6</v>
+      <c r="F2" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
